--- a/input_data/Molecular_data/SD1_Voucher_specimens_metadata_formatted.xlsx
+++ b/input_data/Molecular_data/SD1_Voucher_specimens_metadata_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael_D\R_projects\Ponerinae_Historical_Biogeography\input_data\Molecular_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99AF3A3-FBF5-4466-A6AF-FE613949E326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F918DEC4-999C-45C8-A3C5-D3707AC8511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13267,7 +13267,7 @@
   <dimension ref="A1:V793"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
